--- a/biology/Zoologie/Grimpar_des_cabosses/Grimpar_des_cabosses.xlsx
+++ b/biology/Zoologie/Grimpar_des_cabosses/Grimpar_des_cabosses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xiphorhynchus guttatus
 Le Grimpar des cabosses (Xiphorhynchus guttatus) est une espèce de passereaux de la famille des Furnariidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau peuple le plateau des Guyanes et la forêt atlantique. Il se rencontre au Brésil, en Colombie, au Guyana, en Guyane, au Suriname et au Venezuela[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau peuple le plateau des Guyanes et la forêt atlantique. Il se rencontre au Brésil, en Colombie, au Guyana, en Guyane, au Suriname et au Venezuela.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Chant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 août 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 août 2023) :
 Xiphorhynchus guttatus connectens Todd, 1948
 Xiphorhynchus guttatus dorbignyanus (Lafresnaye, 1850)
 Xiphorhynchus guttatus eytoni (P.L.Sclater, 1854)
@@ -612,12 +630,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Xiphorhynchus guttatus (Lichtenstein, 1820)[2].
-L'espèce a été initialement classée dans le genre Dendrocolaptes sous le protonyme Dendrocolaptes guttatus Lichtenstein, 1820[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpar des cabosses[2].
-Xiphorhynchus guttatus a pour synonyme[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Xiphorhynchus guttatus (Lichtenstein, 1820).
+L'espèce a été initialement classée dans le genre Dendrocolaptes sous le protonyme Dendrocolaptes guttatus Lichtenstein, 1820.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Grimpar des cabosses.
+Xiphorhynchus guttatus a pour synonyme :
 Dendrocolaptes guttatus Lichtenstein, 1820</t>
         </is>
       </c>
